--- a/DDAf_2020_tableau_annexe_Tab10.xlsx
+++ b/DDAf_2020_tableau_annexe_Tab10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="177">
   <si>
     <t>Tableau 10: Ventilation sectorielle de l'économie</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Emploi dans les services en % du total, 2019</t>
   </si>
   <si>
-    <t>Emploi dans le secteur manufacturier (y compris dans l'industrie) en% du total, 2019</t>
+    <t>Emploi dans le secteur manufacturier (y compris dans l'industrie) en % du total, 2019</t>
   </si>
   <si>
     <t>AGO</t>
@@ -529,7 +529,7 @@
     <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
   </si>
   <si>
-    <t>RDM = "Reste du monde" ; LAC = "Pays d'Amérique latine et des Caraîbes"</t>
+    <t>RDM = "Reste du monde" ; LAC = "Pays d'Amérique latine et des Caraïbes"</t>
   </si>
   <si>
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
@@ -538,7 +538,97 @@
     <t>Source : Organisation internationale du travail (récupéré le 25/10/2020), Division des statistiques des Nations Unies, Comptes nationaux (analyse des principaux agrégats, jeu de données téléchargé en décembre 2019), Indicateurs du développement dans le monde de la Banque mondiale (base de données et données publiées par les banques centrales, les agences nationales de statistique, et bureaux de pays de la Banque mondiale -16/10/2020).</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les séries chronologiques historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-fr-2020.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-fr-2020.</t>
+  </si>
+  <si>
+    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
+  </si>
+  <si>
+    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pour télécharger toutes les données de l'annexe statistique des </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamiques du développement en Afrique</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> au format csv compressé, y compris les données historiques remontant à 2000, cliquez ici.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pour télécharger toutes les données de l'annexe statistique des </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamiques du développement en Afrique</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> au format Excel non compressé, y compris les données historiques remontant à 2000, cliquez ici pour télécharger le premier des deux fichiers de données.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pour télécharger toutes les données de l'annexe statistique des </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamiques du développement en Afrique</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> au format Excel non compressé, y compris les données historiques remontant à 2000, cliquez ici pour télécharger le deuxième des deux fichiers de données</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -550,7 +640,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,6 +763,15 @@
       <i/>
       <u/>
       <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -851,9 +950,11 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -881,7 +982,9 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -909,7 +1012,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -919,7 +1024,9 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -929,7 +1036,9 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -963,14 +1072,20 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1256,15 +1371,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P105"/>
+  <dimension ref="A1:P111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="43" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="47" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" style="49" customWidth="1"/>
     <col min="4" max="16" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1855,37 +1970,37 @@
         <v>10.007457929472301</v>
       </c>
       <c r="F13" s="23">
-        <v>7.4151481754471202</v>
+        <v>11.805858752082701</v>
       </c>
       <c r="G13" s="23">
-        <v>27.459797294656902</v>
+        <v>26.390250235330701</v>
       </c>
       <c r="H13" s="23">
-        <v>10.0029578757071</v>
+        <v>10.7159981821224</v>
       </c>
       <c r="I13" s="23">
-        <v>19.094241478620098</v>
+        <v>20.262055939943501</v>
       </c>
       <c r="J13" s="23">
-        <v>6.5793969491451598</v>
+        <v>5.9673422159301301</v>
       </c>
       <c r="K13" s="24">
-        <v>29.448458226433502</v>
+        <v>24.858494674590599</v>
       </c>
       <c r="L13" s="24">
-        <v>8.94254088454481</v>
+        <v>7.9529414811626502</v>
       </c>
       <c r="M13" s="23">
-        <v>37.967071752760098</v>
+        <v>34.864899999999999</v>
       </c>
       <c r="N13" s="23">
-        <v>14.4639409745051</v>
+        <v>17.110399999999998</v>
       </c>
       <c r="O13" s="24">
-        <v>47.568883754663297</v>
+        <v>48.0246</v>
       </c>
       <c r="P13" s="24">
-        <v>6.6038719404688102</v>
+        <v>7.8886000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
@@ -2355,37 +2470,37 @@
         <v>21.302097394521301</v>
       </c>
       <c r="F23" s="23">
-        <v>18.4801262470659</v>
+        <v>18.211734662723799</v>
       </c>
       <c r="G23" s="23">
-        <v>39.537880387914399</v>
+        <v>38.085689958326199</v>
       </c>
       <c r="H23" s="23">
-        <v>2.6168614928764402</v>
+        <v>3.0045981852692698</v>
       </c>
       <c r="I23" s="23">
-        <v>13.7510218786731</v>
+        <v>13.2999209948544</v>
       </c>
       <c r="J23" s="23">
-        <v>8.3927102810581005</v>
+        <v>8.2027815710250795</v>
       </c>
       <c r="K23" s="24">
-        <v>17.2213997124122</v>
+        <v>19.1952746278021</v>
       </c>
       <c r="L23" s="24">
-        <v>17.448146091931001</v>
+        <v>16.410517689424601</v>
       </c>
       <c r="M23" s="23">
-        <v>63.423652585846199</v>
+        <v>53.686999999999998</v>
       </c>
       <c r="N23" s="23">
-        <v>9.6077081325846905</v>
+        <v>11.530888888888899</v>
       </c>
       <c r="O23" s="24">
-        <v>26.968674216797801</v>
+        <v>34.782222222222202</v>
       </c>
       <c r="P23" s="24">
-        <v>4.8826583913295298</v>
+        <v>6.3875555555555596</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
@@ -3105,37 +3220,37 @@
         <v>7.5870027034384</v>
       </c>
       <c r="F38" s="23">
-        <v>28.864835001347402</v>
+        <v>30.547780629952701</v>
       </c>
       <c r="G38" s="23">
-        <v>14.4652592557341</v>
+        <v>13.8376464301386</v>
       </c>
       <c r="H38" s="23">
-        <v>11.383024264066</v>
+        <v>9.8676733661504308</v>
       </c>
       <c r="I38" s="23">
-        <v>13.4318016821298</v>
+        <v>13.751426167962199</v>
       </c>
       <c r="J38" s="23">
-        <v>7.9786537709035201</v>
+        <v>8.0365334277642297</v>
       </c>
       <c r="K38" s="24">
-        <v>23.876426025819899</v>
+        <v>23.958939978030902</v>
       </c>
       <c r="L38" s="24">
-        <v>9.0463026192570393</v>
+        <v>8.6438978418188999</v>
       </c>
       <c r="M38" s="23">
-        <v>62.019291802262202</v>
+        <v>55.0674615384616</v>
       </c>
       <c r="N38" s="23">
-        <v>9.2930834882923108</v>
+        <v>10.942846153846199</v>
       </c>
       <c r="O38" s="24">
-        <v>28.687615565065698</v>
+        <v>33.989615384615398</v>
       </c>
       <c r="P38" s="24">
-        <v>4.60015771578973</v>
+        <v>5.4206923076923097</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
@@ -3455,37 +3570,37 @@
         <v>10.309991614876401</v>
       </c>
       <c r="F45" s="23">
-        <v>12.127657746510099</v>
+        <v>12.3909210367567</v>
       </c>
       <c r="G45" s="23">
-        <v>29.536700763099802</v>
+        <v>29.268253695394101</v>
       </c>
       <c r="H45" s="23">
-        <v>9.5525024164669592</v>
+        <v>10.2528944136068</v>
       </c>
       <c r="I45" s="23">
-        <v>14.369186258394199</v>
+        <v>13.9158097101664</v>
       </c>
       <c r="J45" s="23">
-        <v>10.206484613154601</v>
+        <v>10.383037693645001</v>
       </c>
       <c r="K45" s="24">
-        <v>24.207468202375999</v>
+        <v>23.789083450439001</v>
       </c>
       <c r="L45" s="24">
-        <v>8.7386879209860098</v>
+        <v>7.1210178816969698</v>
       </c>
       <c r="M45" s="23">
-        <v>22.623451233125301</v>
+        <v>25.257999999999999</v>
       </c>
       <c r="N45" s="23">
-        <v>27.014938000702902</v>
+        <v>24.59</v>
       </c>
       <c r="O45" s="24">
-        <v>50.361644167321899</v>
+        <v>50.152166666666702</v>
       </c>
       <c r="P45" s="24">
-        <v>11.8008488408363</v>
+        <v>11.5368333333333</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
@@ -4253,37 +4368,37 @@
         <v>10.4769534142415</v>
       </c>
       <c r="F61" s="23">
-        <v>21.578567869995101</v>
+        <v>25.839668783275702</v>
       </c>
       <c r="G61" s="23">
-        <v>21.3529407284218</v>
+        <v>20.7775666140327</v>
       </c>
       <c r="H61" s="23">
-        <v>4.7502532081845903</v>
+        <v>4.7975308914411903</v>
       </c>
       <c r="I61" s="23">
-        <v>17.952941468292</v>
+        <v>17.3060180011155</v>
       </c>
       <c r="J61" s="23">
-        <v>11.662065337955299</v>
+        <v>8.1134505329411901</v>
       </c>
       <c r="K61" s="24">
-        <v>22.703231387151899</v>
+        <v>23.165765177193901</v>
       </c>
       <c r="L61" s="24">
-        <v>9.8904796685805394</v>
+        <v>10.0847533244762</v>
       </c>
       <c r="M61" s="23">
-        <v>39.668678305364097</v>
+        <v>42.685266666666699</v>
       </c>
       <c r="N61" s="23">
-        <v>13.5721452562124</v>
+        <v>13.9027333333333</v>
       </c>
       <c r="O61" s="24">
-        <v>46.7592048003984</v>
+        <v>43.412066666666703</v>
       </c>
       <c r="P61" s="24">
-        <v>9.0279434777464704</v>
+        <v>8.4810666666666705</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4301,37 +4416,37 @@
         <v>10.4005058625525</v>
       </c>
       <c r="F62" s="27">
-        <v>21.265790147810701</v>
+        <v>25.419794215794798</v>
       </c>
       <c r="G62" s="27">
-        <v>21.9739517798664</v>
+        <v>21.3285178317388</v>
       </c>
       <c r="H62" s="27">
-        <v>6.2833896983617503</v>
+        <v>6.90440183190442</v>
       </c>
       <c r="I62" s="27">
-        <v>16.835297206891301</v>
+        <v>15.3334842778926</v>
       </c>
       <c r="J62" s="27">
-        <v>10.5951409415034</v>
+        <v>8.0708866270623005</v>
       </c>
       <c r="K62" s="28">
-        <v>23.046430225567601</v>
+        <v>22.942915215607201</v>
       </c>
       <c r="L62" s="28">
-        <v>9.9809641750514402</v>
+        <v>10.3366146143601</v>
       </c>
       <c r="M62" s="27">
-        <v>46.131081958019301</v>
+        <v>44.142188679245301</v>
       </c>
       <c r="N62" s="27">
-        <v>14.062978588432699</v>
+        <v>14.589056603773599</v>
       </c>
       <c r="O62" s="28">
-        <v>39.805940223383701</v>
+        <v>41.268773584905702</v>
       </c>
       <c r="P62" s="28">
-        <v>7.3396103509049802</v>
+        <v>7.6090566037735901</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4349,37 +4464,37 @@
         <v>3.0350591612240199</v>
       </c>
       <c r="F63" s="27">
-        <v>9.4895845145729592</v>
+        <v>7.1800350287363797</v>
       </c>
       <c r="G63" s="27">
-        <v>28.765379983818001</v>
+        <v>27.717346963933899</v>
       </c>
       <c r="H63" s="27">
-        <v>8.4905634547104398</v>
+        <v>8.0795692179007901</v>
       </c>
       <c r="I63" s="27">
-        <v>18.235223269146999</v>
+        <v>22.001824411290301</v>
       </c>
       <c r="J63" s="27">
-        <v>8.1258250669310801</v>
+        <v>6.7836776243078001</v>
       </c>
       <c r="K63" s="28">
-        <v>26.8934111839129</v>
+        <v>28.237478364081198</v>
       </c>
       <c r="L63" s="28">
-        <v>17.692229023838301</v>
+        <v>15.998975907948999</v>
       </c>
       <c r="M63" s="27">
-        <v>24.550233988883601</v>
+        <v>16.864439999999998</v>
       </c>
       <c r="N63" s="27">
-        <v>24.497560210643499</v>
+        <v>21.864695999999999</v>
       </c>
       <c r="O63" s="28">
-        <v>50.952192158349703</v>
+        <v>61.270879999999998</v>
       </c>
       <c r="P63" s="28">
-        <v>14.676616826368999</v>
+        <v>11.685079999999999</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
@@ -4397,37 +4512,37 @@
         <v>4.4919608258242603</v>
       </c>
       <c r="F64" s="31">
-        <v>5.8632228483780899</v>
+        <v>5.8634448381392996</v>
       </c>
       <c r="G64" s="31">
-        <v>27.067771519846001</v>
+        <v>27.1204539369893</v>
       </c>
       <c r="H64" s="31">
-        <v>8.2473366579908998</v>
+        <v>8.2576109277015703</v>
       </c>
       <c r="I64" s="31">
-        <v>24.142365262258298</v>
+        <v>24.22928707929</v>
       </c>
       <c r="J64" s="31">
-        <v>6.1113722204329504</v>
+        <v>6.0879327297717998</v>
       </c>
       <c r="K64" s="32">
-        <v>28.567931491256601</v>
+        <v>28.441270514605002</v>
       </c>
       <c r="L64" s="32">
-        <v>15.784117610168</v>
+        <v>15.818607711231801</v>
       </c>
       <c r="M64" s="31">
-        <v>13.523999546267</v>
+        <v>15.672275862069</v>
       </c>
       <c r="N64" s="31">
-        <v>20.477439422042199</v>
+        <v>19.003172413793099</v>
       </c>
       <c r="O64" s="32">
-        <v>65.9985111679173</v>
+        <v>65.324448275862096</v>
       </c>
       <c r="P64" s="32">
-        <v>11.9119612187038</v>
+        <v>9.1470689655172404</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.35">
@@ -4445,37 +4560,37 @@
         <v>2.8048057153630199</v>
       </c>
       <c r="F65" s="34">
-        <v>12.484270145293999</v>
+        <v>12.2393042118133</v>
       </c>
       <c r="G65" s="34">
-        <v>29.9716181289199</v>
+        <v>29.7785038929641</v>
       </c>
       <c r="H65" s="34">
-        <v>8.9163399330926403</v>
+        <v>7.5788997170191399</v>
       </c>
       <c r="I65" s="34">
-        <v>15.169678607500201</v>
+        <v>14.6167912493329</v>
       </c>
       <c r="J65" s="34">
-        <v>9.2608544802116892</v>
+        <v>9.1710747011204408</v>
       </c>
       <c r="K65" s="32">
-        <v>24.197238704981501</v>
+        <v>26.615426227750099</v>
       </c>
       <c r="L65" s="32">
-        <v>18.200281766868301</v>
+        <v>16.023423365626201</v>
       </c>
       <c r="M65" s="34">
-        <v>33.1162336626439</v>
+        <v>31.3222666666667</v>
       </c>
       <c r="N65" s="34">
-        <v>25.593093360490101</v>
+        <v>21.975766666666701</v>
       </c>
       <c r="O65" s="32">
-        <v>41.290661558464997</v>
+        <v>46.701999999999998</v>
       </c>
       <c r="P65" s="32">
-        <v>15.5818132915735</v>
+        <v>12.5468666666667</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4493,37 +4608,37 @@
         <v>3.4036832220999398</v>
       </c>
       <c r="F66" s="31">
-        <v>9.5088390507717406</v>
+        <v>7.2612164876485101</v>
       </c>
       <c r="G66" s="31">
-        <v>28.754275744959799</v>
+        <v>27.688911584696001</v>
       </c>
       <c r="H66" s="31">
-        <v>8.4869546431532807</v>
+        <v>8.0743387868472407</v>
       </c>
       <c r="I66" s="31">
-        <v>18.232934337730502</v>
+        <v>21.972144985427299</v>
       </c>
       <c r="J66" s="31">
-        <v>8.1298624906458095</v>
+        <v>6.7894067298128</v>
       </c>
       <c r="K66" s="32">
-        <v>26.887121226313202</v>
+        <v>28.213913340207299</v>
       </c>
       <c r="L66" s="32">
-        <v>17.6796208176984</v>
+        <v>15.9737738893265</v>
       </c>
       <c r="M66" s="31">
-        <v>28.2264930607626</v>
+        <v>24.9864662921348</v>
       </c>
       <c r="N66" s="31">
-        <v>22.720047788296799</v>
+        <v>19.6983539325843</v>
       </c>
       <c r="O66" s="32">
-        <v>49.053447963868997</v>
+        <v>55.315196629213503</v>
       </c>
       <c r="P66" s="32">
-        <v>13.4267708215023</v>
+        <v>10.471432584269699</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.35">
@@ -4541,37 +4656,37 @@
         <v>9.3736398804496694</v>
       </c>
       <c r="F67" s="36">
-        <v>22.282405512058901</v>
+        <v>27.750936905020499</v>
       </c>
       <c r="G67" s="36">
-        <v>24.540758221772698</v>
+        <v>21.254539480163999</v>
       </c>
       <c r="H67" s="36">
-        <v>6.0652608360275702</v>
+        <v>5.7065208764860902</v>
       </c>
       <c r="I67" s="36">
-        <v>15.0248210772215</v>
+        <v>14.4027507616603</v>
       </c>
       <c r="J67" s="36">
-        <v>7.8492697697864999</v>
+        <v>7.8424772554789</v>
       </c>
       <c r="K67" s="37">
-        <v>24.237484583133899</v>
+        <v>23.042774721188799</v>
       </c>
       <c r="L67" s="37">
-        <v>13.075027684979601</v>
+        <v>11.3960349448465</v>
       </c>
       <c r="M67" s="36">
-        <v>53.847766774607003</v>
+        <v>48.918399999999998</v>
       </c>
       <c r="N67" s="36">
-        <v>13.3041320575061</v>
+        <v>13.4998</v>
       </c>
       <c r="O67" s="37">
-        <v>32.848074833630001</v>
+        <v>37.58175</v>
       </c>
       <c r="P67" s="37">
-        <v>6.3597613555066603</v>
+        <v>6.9781500000000003</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.35">
@@ -4589,37 +4704,37 @@
         <v>9.8161012120956102</v>
       </c>
       <c r="F68" s="34">
-        <v>21.3479031562585</v>
+        <v>28.726099443292402</v>
       </c>
       <c r="G68" s="34">
-        <v>21.577699420492301</v>
+        <v>19.239784086873001</v>
       </c>
       <c r="H68" s="34">
-        <v>4.7857541564006203</v>
+        <v>4.6875595799657601</v>
       </c>
       <c r="I68" s="34">
-        <v>17.8723787371387</v>
+        <v>16.807942967984001</v>
       </c>
       <c r="J68" s="34">
-        <v>11.553706965101901</v>
+        <v>8.2534786046237301</v>
       </c>
       <c r="K68" s="32">
-        <v>22.8625575646088</v>
+        <v>22.285135317261599</v>
       </c>
       <c r="L68" s="32">
-        <v>10.108897568147899</v>
+        <v>9.4931600118893709</v>
       </c>
       <c r="M68" s="34">
-        <v>38.629657325805901</v>
+        <v>45.955120000000001</v>
       </c>
       <c r="N68" s="34">
-        <v>16.320384856051199</v>
+        <v>14.199479999999999</v>
       </c>
       <c r="O68" s="32">
-        <v>45.0499797251328</v>
+        <v>39.845399999999998</v>
       </c>
       <c r="P68" s="32">
-        <v>9.3569753425122197</v>
+        <v>8.2147600000000001</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.35">
@@ -4637,37 +4752,37 @@
         <v>3.8172076787354099</v>
       </c>
       <c r="F69" s="34">
-        <v>28.6417411009134</v>
+        <v>27.937923379071702</v>
       </c>
       <c r="G69" s="34">
-        <v>14.576723149507201</v>
+        <v>14.6316582151674</v>
       </c>
       <c r="H69" s="34">
-        <v>11.654562554135699</v>
+        <v>10.9900017996189</v>
       </c>
       <c r="I69" s="34">
-        <v>13.2761639473472</v>
+        <v>13.728209588077201</v>
       </c>
       <c r="J69" s="34">
-        <v>7.8802711688491804</v>
+        <v>7.4961826672767904</v>
       </c>
       <c r="K69" s="32">
-        <v>23.970538079246701</v>
+        <v>25.2160243507868</v>
       </c>
       <c r="L69" s="32">
-        <v>9.1015567022001402</v>
+        <v>9.2014697115925195</v>
       </c>
       <c r="M69" s="34">
-        <v>64.952101843463495</v>
+        <v>67.286000000000001</v>
       </c>
       <c r="N69" s="34">
-        <v>7.10847926273415</v>
+        <v>7.4853333333333403</v>
       </c>
       <c r="O69" s="32">
-        <v>27.939418893802401</v>
+        <v>25.228666666666701</v>
       </c>
       <c r="P69" s="32">
-        <v>3.0386382478269298</v>
+        <v>2.9803333333333302</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
@@ -4685,37 +4800,37 @@
         <v>22.659190519520699</v>
       </c>
       <c r="F70" s="34">
-        <v>15.3530413802361</v>
+        <v>17.439012191832401</v>
       </c>
       <c r="G70" s="34">
-        <v>35.209626702483298</v>
+        <v>35.347759836682101</v>
       </c>
       <c r="H70" s="34">
-        <v>6.7631321996303102</v>
+        <v>4.8764313363254397</v>
       </c>
       <c r="I70" s="34">
-        <v>16.5491594092457</v>
+        <v>14.4408489169987</v>
       </c>
       <c r="J70" s="34">
-        <v>6.9837992464042404</v>
+        <v>7.5451736574603601</v>
       </c>
       <c r="K70" s="32">
-        <v>19.1412410620019</v>
+        <v>20.3507740607022</v>
       </c>
       <c r="L70" s="32">
-        <v>13.219880907071101</v>
+        <v>14.3497267171893</v>
       </c>
       <c r="M70" s="34">
-        <v>61.267272627698503</v>
+        <v>54.179000000000002</v>
       </c>
       <c r="N70" s="34">
-        <v>9.3239299326833596</v>
+        <v>10.9810909090909</v>
       </c>
       <c r="O70" s="32">
-        <v>29.408824550083299</v>
+        <v>34.840000000000003</v>
       </c>
       <c r="P70" s="32">
-        <v>4.1094670160989102</v>
+        <v>5.5129090909090896</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.35">
@@ -4733,37 +4848,37 @@
         <v>10.4769534142415</v>
       </c>
       <c r="F71" s="34">
-        <v>21.578567869995101</v>
+        <v>25.839668783275702</v>
       </c>
       <c r="G71" s="34">
-        <v>21.3529407284218</v>
+        <v>20.7775666140327</v>
       </c>
       <c r="H71" s="34">
-        <v>4.7502532081845903</v>
+        <v>4.7975308914411903</v>
       </c>
       <c r="I71" s="34">
-        <v>17.952941468292</v>
+        <v>17.3060180011155</v>
       </c>
       <c r="J71" s="34">
-        <v>11.662065337955299</v>
+        <v>8.1134505329411901</v>
       </c>
       <c r="K71" s="32">
-        <v>22.703231387151899</v>
+        <v>23.165765177193901</v>
       </c>
       <c r="L71" s="32">
-        <v>9.8904796685805394</v>
+        <v>10.0847533244762</v>
       </c>
       <c r="M71" s="34">
-        <v>39.668678305364097</v>
+        <v>42.685266666666699</v>
       </c>
       <c r="N71" s="34">
-        <v>13.5721452562124</v>
+        <v>13.9027333333333</v>
       </c>
       <c r="O71" s="32">
-        <v>46.7592048003984</v>
+        <v>43.412066666666703</v>
       </c>
       <c r="P71" s="32">
-        <v>9.0279434777464704</v>
+        <v>8.4810666666666705</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.35">
@@ -4781,37 +4896,37 @@
         <v>8.72137485615802</v>
       </c>
       <c r="F72" s="34">
-        <v>26.975280566862399</v>
+        <v>32.082027728053703</v>
       </c>
       <c r="G72" s="34">
-        <v>13.301086628010101</v>
+        <v>11.9166520752891</v>
       </c>
       <c r="H72" s="34">
-        <v>8.4569656372337203</v>
+        <v>7.5792914697668197</v>
       </c>
       <c r="I72" s="34">
-        <v>16.217997258463299</v>
+        <v>15.6659788917898</v>
       </c>
       <c r="J72" s="34">
-        <v>6.8647279785242397</v>
+        <v>7.20518240264495</v>
       </c>
       <c r="K72" s="32">
-        <v>28.183941930907299</v>
+        <v>25.5508674324556</v>
       </c>
       <c r="L72" s="32">
-        <v>9.2582750816702006</v>
+        <v>8.0735755861728293</v>
       </c>
       <c r="M72" s="34">
-        <v>61.403848029362898</v>
+        <v>58.436999999999998</v>
       </c>
       <c r="N72" s="34">
-        <v>9.7786947714051102</v>
+        <v>9.9137500000000003</v>
       </c>
       <c r="O72" s="32">
-        <v>28.817444829305199</v>
+        <v>31.649125000000002</v>
       </c>
       <c r="P72" s="32">
-        <v>4.9125259707881703</v>
+        <v>5.1109999999999998</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.35">
@@ -4829,37 +4944,37 @@
         <v>10.111654837856401</v>
       </c>
       <c r="F73" s="34">
-        <v>22.2388530825834</v>
+        <v>24.3360898272452</v>
       </c>
       <c r="G73" s="34">
-        <v>24.0877019320287</v>
+        <v>24.8549907219011</v>
       </c>
       <c r="H73" s="34">
-        <v>10.2100243290271</v>
+        <v>9.0664106608870902</v>
       </c>
       <c r="I73" s="34">
-        <v>13.660633088578299</v>
+        <v>13.276152912042001</v>
       </c>
       <c r="J73" s="34">
-        <v>8.1325188333715808</v>
+        <v>8.3819758584650401</v>
       </c>
       <c r="K73" s="32">
-        <v>21.670268734413799</v>
+        <v>20.0843800194585</v>
       </c>
       <c r="L73" s="32">
-        <v>10.800768983174899</v>
+        <v>11.5869540991373</v>
       </c>
       <c r="M73" s="34">
-        <v>51.1016084802989</v>
+        <v>40.003666666666703</v>
       </c>
       <c r="N73" s="34">
-        <v>11.660771946873099</v>
+        <v>15.6604666666667</v>
       </c>
       <c r="O73" s="32">
-        <v>37.237566925803101</v>
+        <v>44.335799999999999</v>
       </c>
       <c r="P73" s="32">
-        <v>5.23579215552604</v>
+        <v>7.3476666666666697</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4877,37 +4992,37 @@
         <v>14.169603346249</v>
       </c>
       <c r="F74" s="31">
-        <v>12.442462089548499</v>
+        <v>12.576824672740299</v>
       </c>
       <c r="G74" s="31">
-        <v>29.304198081538001</v>
+        <v>29.115627917073098</v>
       </c>
       <c r="H74" s="31">
-        <v>11.3562473222736</v>
+        <v>11.150764186419099</v>
       </c>
       <c r="I74" s="31">
-        <v>13.4568713793638</v>
+        <v>13.441152237895899</v>
       </c>
       <c r="J74" s="31">
-        <v>10.8132681807346</v>
+        <v>10.6728542107092</v>
       </c>
       <c r="K74" s="32">
-        <v>22.626952946544002</v>
+        <v>23.042776775171799</v>
       </c>
       <c r="L74" s="32">
-        <v>4.8047313192671597</v>
+        <v>5.1441096792872498</v>
       </c>
       <c r="M74" s="31">
-        <v>21.4792327178845</v>
+        <v>25.551200000000001</v>
       </c>
       <c r="N74" s="31">
-        <v>26.363723199104101</v>
+        <v>23.972000000000001</v>
       </c>
       <c r="O74" s="32">
-        <v>52.157110189869002</v>
+        <v>50.476999999999997</v>
       </c>
       <c r="P74" s="32">
-        <v>11.2190684509728</v>
+        <v>11.3652</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.35">
@@ -4925,37 +5040,37 @@
         <v>3.9801401718895399</v>
       </c>
       <c r="F75" s="36">
-        <v>13.622446737955199</v>
+        <v>14.2092693413347</v>
       </c>
       <c r="G75" s="36">
-        <v>30.5384349038289</v>
+        <v>30.643426477780402</v>
       </c>
       <c r="H75" s="36">
-        <v>10.542055054260199</v>
+        <v>9.7920504307904093</v>
       </c>
       <c r="I75" s="36">
-        <v>16.456846262981699</v>
+        <v>16.443027885842401</v>
       </c>
       <c r="J75" s="36">
-        <v>8.9797564126019207</v>
+        <v>8.0265936630652703</v>
       </c>
       <c r="K75" s="37">
-        <v>19.860460628372099</v>
+        <v>20.885632201186802</v>
       </c>
       <c r="L75" s="37">
-        <v>20.427421369996299</v>
+        <v>19.870912990882601</v>
       </c>
       <c r="M75" s="36">
-        <v>30.3347500215894</v>
+        <v>27.707100000000001</v>
       </c>
       <c r="N75" s="36">
-        <v>22.423773055938799</v>
+        <v>20.7559</v>
       </c>
       <c r="O75" s="37">
-        <v>47.241371543922298</v>
+        <v>51.536900000000003</v>
       </c>
       <c r="P75" s="37">
-        <v>14.0884703888368</v>
+        <v>12.3299</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.35">
@@ -4973,37 +5088,37 @@
         <v>5.3033430401745001</v>
       </c>
       <c r="F76" s="34">
-        <v>5.8662918419735997</v>
+        <v>5.8638707680517497</v>
       </c>
       <c r="G76" s="34">
-        <v>27.0723962452665</v>
+        <v>27.123849680036699</v>
       </c>
       <c r="H76" s="34">
-        <v>8.2481999024398291</v>
+        <v>8.2583366877114397</v>
       </c>
       <c r="I76" s="34">
-        <v>24.1457032810378</v>
+        <v>24.232191652284001</v>
       </c>
       <c r="J76" s="34">
-        <v>6.1079280338457798</v>
+        <v>6.08662682965568</v>
       </c>
       <c r="K76" s="32">
-        <v>28.559480695436399</v>
+        <v>28.435124382260401</v>
       </c>
       <c r="L76" s="32">
-        <v>15.7811865537148</v>
+        <v>15.8190414278258</v>
       </c>
       <c r="M76" s="34">
-        <v>12.0234827545542</v>
+        <v>15.286250000000001</v>
       </c>
       <c r="N76" s="34">
-        <v>19.441943357320799</v>
+        <v>19.700333333333301</v>
       </c>
       <c r="O76" s="32">
-        <v>68.534564530935796</v>
+        <v>65.0134166666667</v>
       </c>
       <c r="P76" s="32">
-        <v>10.926920482457</v>
+        <v>9.8105833333333301</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5021,37 +5136,37 @@
         <v>0.23684161026511</v>
       </c>
       <c r="F77" s="31">
-        <v>2.2434404778864301</v>
+        <v>3.28601789320768</v>
       </c>
       <c r="G77" s="31">
-        <v>22.206921306563899</v>
+        <v>23.679955487856699</v>
       </c>
       <c r="H77" s="31">
-        <v>5.4422316921162297</v>
+        <v>5.5321468231635702</v>
       </c>
       <c r="I77" s="31">
-        <v>13.533782123312401</v>
+        <v>13.451826847838401</v>
       </c>
       <c r="J77" s="31">
-        <v>10.0733123930718</v>
+        <v>10.8792574700862</v>
       </c>
       <c r="K77" s="32">
-        <v>46.500312007047597</v>
+        <v>43.170795477842503</v>
       </c>
       <c r="L77" s="32">
-        <v>19.165428555323199</v>
+        <v>20.610417222402699</v>
       </c>
       <c r="M77" s="31">
-        <v>4.4628724429014897</v>
+        <v>4.6998518518518502</v>
       </c>
       <c r="N77" s="31">
-        <v>24.776148865826499</v>
+        <v>24.3545185185185</v>
       </c>
       <c r="O77" s="32">
-        <v>70.760978544780002</v>
+        <v>70.9457037037037</v>
       </c>
       <c r="P77" s="32">
-        <v>16.259944963561299</v>
+        <v>15.4648518518519</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.35">
@@ -5069,37 +5184,37 @@
         <v>17.437265087526999</v>
       </c>
       <c r="F78" s="36">
-        <v>20.2946965524084</v>
+        <v>18.1838080671608</v>
       </c>
       <c r="G78" s="36">
-        <v>23.2189455898482</v>
+        <v>30.4853966566255</v>
       </c>
       <c r="H78" s="36">
-        <v>5.3353483153689503</v>
+        <v>5.1788884200870902</v>
       </c>
       <c r="I78" s="36">
-        <v>17.594636910827202</v>
+        <v>15.7658189821913</v>
       </c>
       <c r="J78" s="36">
-        <v>11.466769853963701</v>
+        <v>9.9035542528600509</v>
       </c>
       <c r="K78" s="37">
-        <v>22.0896027775843</v>
+        <v>20.482533621075898</v>
       </c>
       <c r="L78" s="37">
-        <v>9.6988043929676699</v>
+        <v>11.5988528804852</v>
       </c>
       <c r="M78" s="36">
-        <v>41.401371560473699</v>
+        <v>40.6788666666667</v>
       </c>
       <c r="N78" s="36">
-        <v>13.7645427223843</v>
+        <v>15.131733333333299</v>
       </c>
       <c r="O78" s="37">
-        <v>44.834111666922198</v>
+        <v>44.189533333333301</v>
       </c>
       <c r="P78" s="37">
-        <v>7.38313255539311</v>
+        <v>7.4499333333333402</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.35">
@@ -5117,37 +5232,37 @@
         <v>21.055271097866999</v>
       </c>
       <c r="F79" s="34">
-        <v>7.1875595582757699</v>
+        <v>6.3905713383996199</v>
       </c>
       <c r="G79" s="34">
-        <v>27.738341750402999</v>
+        <v>27.3894002212053</v>
       </c>
       <c r="H79" s="34">
-        <v>7.3424835895253597</v>
+        <v>7.91722473262777</v>
       </c>
       <c r="I79" s="34">
-        <v>20.5876809451097</v>
+        <v>22.9029400896849</v>
       </c>
       <c r="J79" s="34">
-        <v>7.4720224707119502</v>
+        <v>6.5924719502009603</v>
       </c>
       <c r="K79" s="32">
-        <v>29.671911685973999</v>
+        <v>28.807391667881301</v>
       </c>
       <c r="L79" s="32">
-        <v>14.635570172843</v>
+        <v>15.383875021190899</v>
       </c>
       <c r="M79" s="34">
-        <v>14.280185772778699</v>
+        <v>16.676652173912998</v>
       </c>
       <c r="N79" s="34">
-        <v>24.637670736342599</v>
+        <v>23.8730869565217</v>
       </c>
       <c r="O79" s="32">
-        <v>61.082272378898303</v>
+        <v>59.450391304347797</v>
       </c>
       <c r="P79" s="32">
-        <v>11.5436462617555</v>
+        <v>8.7289999999999992</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.35">
@@ -5165,37 +5280,37 @@
         <v>6.2429255180548804</v>
       </c>
       <c r="F80" s="34">
-        <v>24.226757499968901</v>
+        <v>29.160265573900801</v>
       </c>
       <c r="G80" s="34">
-        <v>18.177833627662999</v>
+        <v>16.595086579855899</v>
       </c>
       <c r="H80" s="34">
-        <v>9.1740684103077008</v>
+        <v>7.7963650505113096</v>
       </c>
       <c r="I80" s="34">
-        <v>14.519989925289501</v>
+        <v>15.1099991101039</v>
       </c>
       <c r="J80" s="34">
-        <v>7.9374519553838701</v>
+        <v>7.1235325798853699</v>
       </c>
       <c r="K80" s="32">
-        <v>25.963898581389099</v>
+        <v>24.2147511057426</v>
       </c>
       <c r="L80" s="32">
-        <v>10.841299272304299</v>
+        <v>9.6841304906256092</v>
       </c>
       <c r="M80" s="34">
-        <v>48.776356827398899</v>
+        <v>45.509289473684198</v>
       </c>
       <c r="N80" s="34">
-        <v>14.2298904773698</v>
+        <v>14.3748421052632</v>
       </c>
       <c r="O80" s="32">
-        <v>36.993739382201902</v>
+        <v>40.115842105263198</v>
       </c>
       <c r="P80" s="32">
-        <v>7.3152688618674704</v>
+        <v>7.67186842105263</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5213,37 +5328,37 @@
         <v>1.5306225557606501</v>
       </c>
       <c r="F81" s="31">
-        <v>11.9717503752097</v>
+        <v>12.5945057487321</v>
       </c>
       <c r="G81" s="31">
-        <v>29.872787283455601</v>
+        <v>29.966542282169101</v>
       </c>
       <c r="H81" s="31">
-        <v>9.7284842856082001</v>
+        <v>9.1929952979381806</v>
       </c>
       <c r="I81" s="31">
-        <v>15.6986781652835</v>
+        <v>15.821597865449499</v>
       </c>
       <c r="J81" s="31">
-        <v>8.8307898326220293</v>
+        <v>8.0950457551295294</v>
       </c>
       <c r="K81" s="32">
-        <v>23.897484023735</v>
+        <v>24.3287756154525</v>
       </c>
       <c r="L81" s="32">
-        <v>20.988081324135401</v>
+        <v>20.2175939165549</v>
       </c>
       <c r="M81" s="31">
-        <v>25.430371936874</v>
+        <v>16.906784313725499</v>
       </c>
       <c r="N81" s="31">
-        <v>24.4855528093163</v>
+        <v>21.411823529411802</v>
       </c>
       <c r="O81" s="32">
-        <v>50.084049396925202</v>
+        <v>61.681382352941199</v>
       </c>
       <c r="P81" s="32">
-        <v>14.945110822290999</v>
+        <v>12.351647058823501</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.35">
@@ -5261,37 +5376,37 @@
         <v>13.022937172953901</v>
       </c>
       <c r="F82" s="36">
-        <v>24.251742029538701</v>
+        <v>28.923090793055302</v>
       </c>
       <c r="G82" s="36">
-        <v>23.989754035068302</v>
+        <v>21.029664642049699</v>
       </c>
       <c r="H82" s="36">
-        <v>5.9487114442630702</v>
+        <v>5.3035945927032904</v>
       </c>
       <c r="I82" s="36">
-        <v>15.864622370952</v>
+        <v>15.6054889541689</v>
       </c>
       <c r="J82" s="36">
-        <v>6.9290797135991999</v>
+        <v>6.6672518083203602</v>
       </c>
       <c r="K82" s="37">
-        <v>23.016090406580101</v>
+        <v>22.470909209702</v>
       </c>
       <c r="L82" s="37">
-        <v>12.189922978123199</v>
+        <v>10.569599053272301</v>
       </c>
       <c r="M82" s="36">
-        <v>62.619856806138898</v>
+        <v>60.333130434782603</v>
       </c>
       <c r="N82" s="36">
-        <v>10.212096276362701</v>
+        <v>9.7676086956521804</v>
       </c>
       <c r="O82" s="37">
-        <v>27.168025163185799</v>
+        <v>29.899173913043501</v>
       </c>
       <c r="P82" s="37">
-        <v>5.3288735997080403</v>
+        <v>5.3719565217391301</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.35">
@@ -5309,37 +5424,37 @@
         <v>2.3010113016448002</v>
       </c>
       <c r="F83" s="34">
-        <v>19.737029712832001</v>
+        <v>20.436658922758099</v>
       </c>
       <c r="G83" s="34">
-        <v>14.8807182291388</v>
+        <v>22.070132187141802</v>
       </c>
       <c r="H83" s="34">
-        <v>6.9153926541719901</v>
+        <v>5.9025813330629697</v>
       </c>
       <c r="I83" s="34">
-        <v>18.004975424421598</v>
+        <v>18.421711170561899</v>
       </c>
       <c r="J83" s="34">
-        <v>17.606143291988001</v>
+        <v>11.9016892823542</v>
       </c>
       <c r="K83" s="32">
-        <v>22.8557406874801</v>
+        <v>21.267227104127102</v>
       </c>
       <c r="L83" s="32">
-        <v>10.924901434055</v>
+        <v>9.0473678111692593</v>
       </c>
       <c r="M83" s="34">
-        <v>36.131736079094601</v>
+        <v>34.571166666666699</v>
       </c>
       <c r="N83" s="34">
-        <v>15.351174432568801</v>
+        <v>15.099166666666701</v>
       </c>
       <c r="O83" s="32">
-        <v>48.517089488336602</v>
+        <v>50.329666666666697</v>
       </c>
       <c r="P83" s="32">
-        <v>7.1335181220788</v>
+        <v>6.7993333333333403</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.35">
@@ -5357,37 +5472,37 @@
         <v>10.0339240547455</v>
       </c>
       <c r="F84" s="34">
-        <v>21.243956131755599</v>
+        <v>22.6287504942004</v>
       </c>
       <c r="G84" s="34">
-        <v>21.566245802883898</v>
+        <v>20.474512490197199</v>
       </c>
       <c r="H84" s="34">
-        <v>6.3765168105514602</v>
+        <v>8.8725291575505008</v>
       </c>
       <c r="I84" s="34">
-        <v>17.0291260341445</v>
+        <v>15.366585197031201</v>
       </c>
       <c r="J84" s="34">
-        <v>11.128706438888999</v>
+        <v>9.72328811276107</v>
       </c>
       <c r="K84" s="32">
-        <v>22.6554487817763</v>
+        <v>22.934334548260399</v>
       </c>
       <c r="L84" s="32">
-        <v>9.6023011066382296</v>
+        <v>9.8088241537469507</v>
       </c>
       <c r="M84" s="34">
-        <v>37.364304267376099</v>
+        <v>34.947869565217403</v>
       </c>
       <c r="N84" s="34">
-        <v>16.185557717848699</v>
+        <v>18.010478260869601</v>
       </c>
       <c r="O84" s="32">
-        <v>46.450146567967998</v>
+        <v>47.041739130434799</v>
       </c>
       <c r="P84" s="32">
-        <v>8.6235897644368809</v>
+        <v>9.7053913043478293</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.35">
@@ -5405,37 +5520,37 @@
         <v>2.7444650182347399</v>
       </c>
       <c r="F85" s="34">
-        <v>16.4417781718663</v>
+        <v>17.4512505042354</v>
       </c>
       <c r="G85" s="34">
-        <v>28.922409599608699</v>
+        <v>30.4689086038609</v>
       </c>
       <c r="H85" s="34">
-        <v>6.8385297659857303</v>
+        <v>6.6028807019569804</v>
       </c>
       <c r="I85" s="34">
-        <v>14.522785667873499</v>
+        <v>15.569487436247099</v>
       </c>
       <c r="J85" s="34">
-        <v>5.1938133768733001</v>
+        <v>4.5201913034989598</v>
       </c>
       <c r="K85" s="32">
-        <v>28.080683417792901</v>
+        <v>25.387281450200799</v>
       </c>
       <c r="L85" s="32">
-        <v>17.436809273422899</v>
+        <v>17.550482157390299</v>
       </c>
       <c r="M85" s="34">
-        <v>39.588461060842</v>
+        <v>37.2455833333333</v>
       </c>
       <c r="N85" s="34">
-        <v>24.496980897489799</v>
+        <v>18.9910416666667</v>
       </c>
       <c r="O85" s="32">
-        <v>35.9145818448428</v>
+        <v>43.763458333333297</v>
       </c>
       <c r="P85" s="32">
-        <v>12.9565259326732</v>
+        <v>10.729875</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.35">
@@ -5453,37 +5568,37 @@
         <v>9.7566404122441206</v>
       </c>
       <c r="F86" s="34">
-        <v>2.6505686830624202</v>
+        <v>3.6044867937788099</v>
       </c>
       <c r="G86" s="34">
-        <v>28.0764286535452</v>
+        <v>42.9194831045115</v>
       </c>
       <c r="H86" s="34">
-        <v>4.0695094629480497</v>
+        <v>4.7287043295191697</v>
       </c>
       <c r="I86" s="34">
-        <v>14.0167500199359</v>
+        <v>9.0359671913284103</v>
       </c>
       <c r="J86" s="34">
-        <v>9.4231838408685693</v>
+        <v>7.3699105277991697</v>
       </c>
       <c r="K86" s="32">
-        <v>41.763559339660198</v>
+        <v>32.341448053067701</v>
       </c>
       <c r="L86" s="32">
-        <v>13.395935814833701</v>
+        <v>14.9327051858128</v>
       </c>
       <c r="M86" s="34">
-        <v>8.9286053352216204</v>
+        <v>23.666833333333301</v>
       </c>
       <c r="N86" s="34">
-        <v>22.012040606288402</v>
+        <v>18.172999999999998</v>
       </c>
       <c r="O86" s="32">
-        <v>69.0594460653097</v>
+        <v>58.160333333333298</v>
       </c>
       <c r="P86" s="32">
-        <v>9.84674961693878</v>
+        <v>7.3146666666666702</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.35">
@@ -5501,37 +5616,37 @@
         <v>4.4413347843379603</v>
       </c>
       <c r="F87" s="34">
-        <v>9.6068625004886101</v>
+        <v>6.9065584541943403</v>
       </c>
       <c r="G87" s="34">
-        <v>28.874816529638299</v>
+        <v>27.608592359511601</v>
       </c>
       <c r="H87" s="34">
-        <v>8.7671216572498292</v>
+        <v>8.1609895048144594</v>
       </c>
       <c r="I87" s="34">
-        <v>18.7738138139493</v>
+        <v>22.363575369287499</v>
       </c>
       <c r="J87" s="34">
-        <v>8.2387605305963003</v>
+        <v>6.8354320817887197</v>
       </c>
       <c r="K87" s="32">
-        <v>25.7386109126133</v>
+        <v>28.124780533178399</v>
       </c>
       <c r="L87" s="32">
-        <v>17.274151118491901</v>
+        <v>15.8086283997206</v>
       </c>
       <c r="M87" s="34">
-        <v>21.2893433038066</v>
+        <v>18.2396590909091</v>
       </c>
       <c r="N87" s="34">
-        <v>25.7243241128817</v>
+        <v>22.351318181818201</v>
       </c>
       <c r="O87" s="32">
-        <v>52.986302393278599</v>
+        <v>59.408954545454598</v>
       </c>
       <c r="P87" s="32">
-        <v>17.0419809269026</v>
+        <v>12.3597954545455</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5549,37 +5664,37 @@
         <v>2.0751491045750101</v>
       </c>
       <c r="F88" s="31">
-        <v>1.6107940361822599</v>
+        <v>1.97421793910573</v>
       </c>
       <c r="G88" s="31">
-        <v>26.948155656718001</v>
+        <v>28.838207487681601</v>
       </c>
       <c r="H88" s="31">
-        <v>5.6869859683148896</v>
+        <v>5.91459303427136</v>
       </c>
       <c r="I88" s="31">
-        <v>13.207948640104201</v>
+        <v>12.043949389482</v>
       </c>
       <c r="J88" s="31">
-        <v>8.9534527356954499</v>
+        <v>8.4678406817113103</v>
       </c>
       <c r="K88" s="32">
-        <v>43.592662962985102</v>
+        <v>42.7611914677478</v>
       </c>
       <c r="L88" s="32">
-        <v>24.3372373979348</v>
+        <v>25.587949537201599</v>
       </c>
       <c r="M88" s="31">
-        <v>3.12168479513001</v>
+        <v>4.0434807692307704</v>
       </c>
       <c r="N88" s="31">
-        <v>22.605711796055001</v>
+        <v>23.6256730769231</v>
       </c>
       <c r="O88" s="32">
-        <v>74.272557993783593</v>
+        <v>72.330903846153902</v>
       </c>
       <c r="P88" s="32">
-        <v>13.105720514492299</v>
+        <v>12.1366153846154</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.35">
@@ -5597,37 +5712,37 @@
         <v>13.770462518224999</v>
       </c>
       <c r="F89" s="36">
-        <v>24.701517418392601</v>
+        <v>28.1047298677966</v>
       </c>
       <c r="G89" s="36">
-        <v>21.3256141526604</v>
+        <v>20.1459834976372</v>
       </c>
       <c r="H89" s="36">
-        <v>9.7526735305262395</v>
+        <v>7.4132847382002298</v>
       </c>
       <c r="I89" s="36">
-        <v>14.876824855415</v>
+        <v>15.0120696158579</v>
       </c>
       <c r="J89" s="36">
-        <v>7.3334902320437401</v>
+        <v>7.0868213255197796</v>
       </c>
       <c r="K89" s="37">
-        <v>22.009879810963501</v>
+        <v>22.237110954988299</v>
       </c>
       <c r="L89" s="37">
-        <v>10.348909801272001</v>
+        <v>10.1733640774866</v>
       </c>
       <c r="M89" s="36">
-        <v>60.408269309191702</v>
+        <v>54.036757575757598</v>
       </c>
       <c r="N89" s="36">
-        <v>10.1951401472529</v>
+        <v>11.5926363636364</v>
       </c>
       <c r="O89" s="37">
-        <v>29.3965733950592</v>
+        <v>34.3705454545455</v>
       </c>
       <c r="P89" s="37">
-        <v>5.1487152289080296</v>
+        <v>6.0879393939393998</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.35">
@@ -5645,37 +5760,37 @@
         <v>2.12472308540405</v>
       </c>
       <c r="F90" s="34">
-        <v>21.123113693743999</v>
+        <v>21.504761875603901</v>
       </c>
       <c r="G90" s="34">
-        <v>25.432592379760901</v>
+        <v>25.223395136372901</v>
       </c>
       <c r="H90" s="34">
-        <v>7.81828610623361</v>
+        <v>9.0251299660718995</v>
       </c>
       <c r="I90" s="34">
-        <v>17.042878539570001</v>
+        <v>16.937914286582899</v>
       </c>
       <c r="J90" s="34">
-        <v>10.359418992733801</v>
+        <v>8.15251151933297</v>
       </c>
       <c r="K90" s="32">
-        <v>18.2237102879586</v>
+        <v>19.1562872160357</v>
       </c>
       <c r="L90" s="32">
-        <v>18.5149817542421</v>
+        <v>15.1433206407794</v>
       </c>
       <c r="M90" s="34">
-        <v>41.929294554198599</v>
+        <v>45.074583333333401</v>
       </c>
       <c r="N90" s="34">
-        <v>18.3086371859285</v>
+        <v>13.7191666666667</v>
       </c>
       <c r="O90" s="32">
-        <v>39.762069114605403</v>
+        <v>41.206333333333298</v>
       </c>
       <c r="P90" s="32">
-        <v>11.6476611749762</v>
+        <v>7.5579999999999998</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.35">
@@ -5693,37 +5808,37 @@
         <v>1.0372252925926799</v>
       </c>
       <c r="F91" s="34">
-        <v>13.7917812423232</v>
+        <v>30.158376447787099</v>
       </c>
       <c r="G91" s="34">
-        <v>14.2651224257627</v>
+        <v>12.273992932549101</v>
       </c>
       <c r="H91" s="34">
-        <v>4.0755942256748696</v>
+        <v>3.13191628913764</v>
       </c>
       <c r="I91" s="34">
-        <v>19.492416807454401</v>
+        <v>19.5517517380475</v>
       </c>
       <c r="J91" s="34">
-        <v>9.5095519609189996</v>
+        <v>7.7865378968683396</v>
       </c>
       <c r="K91" s="32">
-        <v>38.865533337823003</v>
+        <v>27.097424695502198</v>
       </c>
       <c r="L91" s="32">
-        <v>12.091165513675399</v>
+        <v>10.5306258470573</v>
       </c>
       <c r="M91" s="34">
-        <v>39.9189926043314</v>
+        <v>31.027999999999999</v>
       </c>
       <c r="N91" s="34">
-        <v>15.126134418206201</v>
+        <v>17.149000000000001</v>
       </c>
       <c r="O91" s="32">
-        <v>44.954987393429903</v>
+        <v>51.8232</v>
       </c>
       <c r="P91" s="32">
-        <v>7.8064823618703301</v>
+        <v>8.4496000000000002</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.35">
@@ -5741,37 +5856,37 @@
         <v>2.4350960246908802</v>
       </c>
       <c r="F92" s="34">
-        <v>4.7813551902690099</v>
+        <v>7.99241969156345</v>
       </c>
       <c r="G92" s="34">
-        <v>19.391751273406701</v>
+        <v>18.408444643667</v>
       </c>
       <c r="H92" s="34">
-        <v>9.6605377524924307</v>
+        <v>10.700987535725201</v>
       </c>
       <c r="I92" s="34">
-        <v>18.413208584612601</v>
+        <v>19.539573787964599</v>
       </c>
       <c r="J92" s="34">
-        <v>10.206598489930199</v>
+        <v>9.8061946814077903</v>
       </c>
       <c r="K92" s="32">
-        <v>37.546555578356099</v>
+        <v>33.552863319685798</v>
       </c>
       <c r="L92" s="32">
-        <v>15.5878798070369</v>
+        <v>11.9331282051701</v>
       </c>
       <c r="M92" s="34">
-        <v>22.469067608664801</v>
+        <v>20.255500000000001</v>
       </c>
       <c r="N92" s="34">
-        <v>14.4340170117189</v>
+        <v>17.567272727272702</v>
       </c>
       <c r="O92" s="32">
-        <v>63.096923737513698</v>
+        <v>62.177272727272701</v>
       </c>
       <c r="P92" s="32">
-        <v>6.1314811513678302</v>
+        <v>7.3925454545454601</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.35">
@@ -5789,37 +5904,37 @@
         <v>8.5054770896410492</v>
       </c>
       <c r="F93" s="34">
-        <v>25.087110428493801</v>
+        <v>26.6817416498426</v>
       </c>
       <c r="G93" s="34">
-        <v>14.3709763424699</v>
+        <v>15.039010532675899</v>
       </c>
       <c r="H93" s="34">
-        <v>8.5870049494000593</v>
+        <v>7.3054593007848299</v>
       </c>
       <c r="I93" s="34">
-        <v>17.151261335369899</v>
+        <v>16.4078081468822</v>
       </c>
       <c r="J93" s="34">
-        <v>6.0342267352794901</v>
+        <v>6.0714195442913601</v>
       </c>
       <c r="K93" s="32">
-        <v>28.769420208990301</v>
+        <v>28.494560825522999</v>
       </c>
       <c r="L93" s="32">
-        <v>9.8229178757096296</v>
+        <v>9.9183811922149001</v>
       </c>
       <c r="M93" s="34">
-        <v>62.984622635986497</v>
+        <v>54.223125000000003</v>
       </c>
       <c r="N93" s="34">
-        <v>10.4856954591756</v>
+        <v>13.273375</v>
       </c>
       <c r="O93" s="32">
-        <v>26.529625838475599</v>
+        <v>32.503437499999997</v>
       </c>
       <c r="P93" s="32">
-        <v>5.5577889016258801</v>
+        <v>6.5177500000000004</v>
       </c>
     </row>
     <row r="94" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5837,37 +5952,37 @@
         <v>16.083958109478498</v>
       </c>
       <c r="F94" s="31">
-        <v>22.582288321457401</v>
+        <v>21.175298481516201</v>
       </c>
       <c r="G94" s="31">
-        <v>27.413715700379498</v>
+        <v>27.9545331447537</v>
       </c>
       <c r="H94" s="31">
-        <v>5.8927192776820503</v>
+        <v>6.2413188786506302</v>
       </c>
       <c r="I94" s="31">
-        <v>11.0412428452422</v>
+        <v>11.6509549264486</v>
       </c>
       <c r="J94" s="31">
-        <v>8.3106244591064193</v>
+        <v>7.3653511466937998</v>
       </c>
       <c r="K94" s="32">
-        <v>24.7594093961327</v>
+        <v>25.612543421937499</v>
       </c>
       <c r="L94" s="32">
-        <v>16.6627889307094</v>
+        <v>16.383666737580601</v>
       </c>
       <c r="M94" s="31">
-        <v>36.792874686950597</v>
+        <v>34.147562499999999</v>
       </c>
       <c r="N94" s="31">
-        <v>20.505213121290499</v>
+        <v>20.330937500000001</v>
       </c>
       <c r="O94" s="32">
-        <v>42.7021040567478</v>
+        <v>45.521625</v>
       </c>
       <c r="P94" s="32">
-        <v>9.8377068142574196</v>
+        <v>10.8598125</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.35">
@@ -5885,37 +6000,37 @@
         <v>11.526602700046499</v>
       </c>
       <c r="F95" s="36">
-        <v>22.3440320964432</v>
+        <v>25.381512481880801</v>
       </c>
       <c r="G95" s="36">
-        <v>20.4619243827253</v>
+        <v>19.035994659319599</v>
       </c>
       <c r="H95" s="36">
-        <v>6.2597241998311102</v>
+        <v>7.7665265277586499</v>
       </c>
       <c r="I95" s="36">
-        <v>17.2912996258449</v>
+        <v>16.170469448584399</v>
       </c>
       <c r="J95" s="36">
-        <v>10.740090524007</v>
+        <v>7.8111818302672003</v>
       </c>
       <c r="K95" s="37">
-        <v>22.902929171149399</v>
+        <v>23.834315052189201</v>
       </c>
       <c r="L95" s="37">
-        <v>9.6973785520799805</v>
+        <v>9.8409329095619107</v>
       </c>
       <c r="M95" s="36">
-        <v>52.342166705437897</v>
+        <v>48.671310344827603</v>
       </c>
       <c r="N95" s="36">
-        <v>10.7138169444054</v>
+        <v>12.9501034482759</v>
       </c>
       <c r="O95" s="37">
-        <v>36.944034297317501</v>
+        <v>38.3785862068965</v>
       </c>
       <c r="P95" s="37">
-        <v>6.1854240165298702</v>
+        <v>6.9988275862069003</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.35">
@@ -5933,37 +6048,37 @@
         <v>2.1595459420089602</v>
       </c>
       <c r="F96" s="34">
-        <v>7.2114919625512899</v>
+        <v>6.3799725703065002</v>
       </c>
       <c r="G96" s="34">
-        <v>27.695071418708199</v>
+        <v>27.3482592104315</v>
       </c>
       <c r="H96" s="34">
-        <v>7.3441337319803797</v>
+        <v>7.9321702201498097</v>
       </c>
       <c r="I96" s="34">
-        <v>20.6567593537726</v>
+        <v>22.967577019747399</v>
       </c>
       <c r="J96" s="34">
-        <v>7.4690069924933304</v>
+        <v>6.5830615598992797</v>
       </c>
       <c r="K96" s="32">
-        <v>29.623536540494001</v>
+        <v>28.788959419465399</v>
       </c>
       <c r="L96" s="32">
-        <v>14.6650898938476</v>
+        <v>15.4061035942656</v>
       </c>
       <c r="M96" s="34">
-        <v>35.388752807194201</v>
+        <v>37.8311428571429</v>
       </c>
       <c r="N96" s="34">
-        <v>22.5288459698453</v>
+        <v>17.9005714285714</v>
       </c>
       <c r="O96" s="32">
-        <v>42.082418121766601</v>
+        <v>44.268285714285703</v>
       </c>
       <c r="P96" s="32">
-        <v>14.2809342159588</v>
+        <v>10.6576428571429</v>
       </c>
     </row>
     <row r="97" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5981,37 +6096,37 @@
         <v>30.3258976801012</v>
       </c>
       <c r="F97" s="39">
-        <v>3.3971621249297601</v>
+        <v>11.9137589868016</v>
       </c>
       <c r="G97" s="39">
-        <v>50.248355762946701</v>
+        <v>43.313881752809003</v>
       </c>
       <c r="H97" s="39">
-        <v>4.0492843597984196</v>
+        <v>3.7407185495442001</v>
       </c>
       <c r="I97" s="39">
-        <v>8.0508516480197905</v>
+        <v>9.6459090985492306</v>
       </c>
       <c r="J97" s="39">
-        <v>10.400841968096801</v>
+        <v>10.0344680709713</v>
       </c>
       <c r="K97" s="40">
-        <v>23.8535041362091</v>
+        <v>21.351263541325</v>
       </c>
       <c r="L97" s="40">
-        <v>2.8465175473520401</v>
+        <v>5.6183526633684204</v>
       </c>
       <c r="M97" s="39">
-        <v>48.167609340489001</v>
+        <v>50.360846153846197</v>
       </c>
       <c r="N97" s="39">
-        <v>13.187553545433101</v>
+        <v>12.156230769230801</v>
       </c>
       <c r="O97" s="40">
-        <v>38.644853490161999</v>
+        <v>37.482999999999997</v>
       </c>
       <c r="P97" s="40">
-        <v>5.7487836666912804</v>
+        <v>5.9778461538461602</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.35">
@@ -6033,95 +6148,260 @@
       <c r="P98" s="31"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="A99" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="B99" s="43"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="44"/>
-      <c r="E99" s="44"/>
-      <c r="F99" s="44"/>
-      <c r="G99" s="44"/>
-      <c r="H99" s="45"/>
-      <c r="I99" s="45"/>
-      <c r="J99" s="45"/>
-      <c r="K99" s="44"/>
-      <c r="L99" s="44"/>
-      <c r="M99" s="45"/>
-      <c r="N99" s="45"/>
-      <c r="O99" s="44"/>
-      <c r="P99" s="44"/>
+      <c r="B99" s="44"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="45"/>
+      <c r="E99" s="45"/>
+      <c r="F99" s="45"/>
+      <c r="G99" s="45"/>
+      <c r="H99" s="46"/>
+      <c r="I99" s="46"/>
+      <c r="J99" s="46"/>
+      <c r="K99" s="45"/>
+      <c r="L99" s="45"/>
+      <c r="M99" s="46"/>
+      <c r="N99" s="46"/>
+      <c r="O99" s="45"/>
+      <c r="P99" s="45"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="A100" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="B100" s="43"/>
-      <c r="C100" s="44"/>
-      <c r="D100" s="44"/>
-      <c r="E100" s="44"/>
-      <c r="F100" s="44"/>
-      <c r="G100" s="44"/>
-      <c r="H100" s="45"/>
-      <c r="I100" s="45"/>
-      <c r="J100" s="45"/>
-      <c r="K100" s="44"/>
-      <c r="L100" s="44"/>
-      <c r="M100" s="45"/>
-      <c r="N100" s="45"/>
-      <c r="O100" s="44"/>
-      <c r="P100" s="44"/>
+      <c r="B100" s="44"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="45"/>
+      <c r="E100" s="45"/>
+      <c r="F100" s="45"/>
+      <c r="G100" s="45"/>
+      <c r="H100" s="46"/>
+      <c r="I100" s="46"/>
+      <c r="J100" s="46"/>
+      <c r="K100" s="45"/>
+      <c r="L100" s="45"/>
+      <c r="M100" s="46"/>
+      <c r="N100" s="46"/>
+      <c r="O100" s="45"/>
+      <c r="P100" s="45"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="A101" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="B101" s="43"/>
-      <c r="C101" s="44"/>
-      <c r="D101" s="44"/>
-      <c r="E101" s="44"/>
-      <c r="F101" s="44"/>
-      <c r="G101" s="44"/>
-      <c r="H101" s="45"/>
-      <c r="I101" s="45"/>
-      <c r="J101" s="45"/>
-      <c r="K101" s="44"/>
-      <c r="L101" s="44"/>
-      <c r="M101" s="45"/>
-      <c r="N101" s="45"/>
-      <c r="O101" s="44"/>
-      <c r="P101" s="44"/>
+      <c r="B101" s="44"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="45"/>
+      <c r="E101" s="45"/>
+      <c r="F101" s="45"/>
+      <c r="G101" s="45"/>
+      <c r="H101" s="46"/>
+      <c r="I101" s="46"/>
+      <c r="J101" s="46"/>
+      <c r="K101" s="45"/>
+      <c r="L101" s="45"/>
+      <c r="M101" s="46"/>
+      <c r="N101" s="46"/>
+      <c r="O101" s="45"/>
+      <c r="P101" s="45"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="A102" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="B102" s="43"/>
-      <c r="C102" s="44"/>
-      <c r="D102" s="44"/>
-      <c r="E102" s="44"/>
-      <c r="F102" s="44"/>
-      <c r="G102" s="44"/>
-      <c r="H102" s="45"/>
-      <c r="I102" s="45"/>
-      <c r="J102" s="45"/>
-      <c r="K102" s="44"/>
-      <c r="L102" s="44"/>
-      <c r="M102" s="45"/>
-      <c r="N102" s="45"/>
-      <c r="O102" s="44"/>
-      <c r="P102" s="44"/>
+      <c r="B102" s="44"/>
+      <c r="C102" s="45"/>
+      <c r="D102" s="45"/>
+      <c r="E102" s="45"/>
+      <c r="F102" s="45"/>
+      <c r="G102" s="45"/>
+      <c r="H102" s="46"/>
+      <c r="I102" s="46"/>
+      <c r="J102" s="46"/>
+      <c r="K102" s="45"/>
+      <c r="L102" s="45"/>
+      <c r="M102" s="46"/>
+      <c r="N102" s="46"/>
+      <c r="O102" s="45"/>
+      <c r="P102" s="45"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B103" s="44"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="45"/>
+      <c r="E103" s="45"/>
+      <c r="F103" s="45"/>
+      <c r="G103" s="45"/>
+      <c r="H103" s="46"/>
+      <c r="I103" s="46"/>
+      <c r="J103" s="46"/>
+      <c r="K103" s="45"/>
+      <c r="L103" s="45"/>
+      <c r="M103" s="46"/>
+      <c r="N103" s="46"/>
+      <c r="O103" s="45"/>
+      <c r="P103" s="45"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B104" s="44"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="45"/>
+      <c r="E104" s="45"/>
+      <c r="F104" s="45"/>
+      <c r="G104" s="45"/>
+      <c r="H104" s="46"/>
+      <c r="I104" s="46"/>
+      <c r="J104" s="46"/>
+      <c r="K104" s="45"/>
+      <c r="L104" s="45"/>
+      <c r="M104" s="46"/>
+      <c r="N104" s="46"/>
+      <c r="O104" s="45"/>
+      <c r="P104" s="45"/>
     </row>
     <row r="105" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B105" s="46" t="s">
+      <c r="B105" s="47" t="s">
         <v>171</v>
       </c>
+      <c r="C105" s="45"/>
+      <c r="D105" s="45"/>
+      <c r="E105" s="45"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="45"/>
+      <c r="H105" s="46"/>
+      <c r="I105" s="46"/>
+      <c r="J105" s="46"/>
+      <c r="K105" s="45"/>
+      <c r="L105" s="45"/>
+      <c r="M105" s="46"/>
+      <c r="N105" s="46"/>
+      <c r="O105" s="45"/>
+      <c r="P105" s="45"/>
+    </row>
+    <row r="106" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B106" s="47"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="45"/>
+      <c r="E106" s="45"/>
+      <c r="F106" s="45"/>
+      <c r="G106" s="45"/>
+      <c r="H106" s="46"/>
+      <c r="I106" s="46"/>
+      <c r="J106" s="46"/>
+      <c r="K106" s="45"/>
+      <c r="L106" s="45"/>
+      <c r="M106" s="46"/>
+      <c r="N106" s="46"/>
+      <c r="O106" s="45"/>
+      <c r="P106" s="45"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B107" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="C107" s="45"/>
+      <c r="D107" s="45"/>
+      <c r="E107" s="45"/>
+      <c r="F107" s="45"/>
+      <c r="G107" s="45"/>
+      <c r="H107" s="46"/>
+      <c r="I107" s="46"/>
+      <c r="J107" s="46"/>
+      <c r="K107" s="45"/>
+      <c r="L107" s="45"/>
+      <c r="M107" s="46"/>
+      <c r="N107" s="46"/>
+      <c r="O107" s="45"/>
+      <c r="P107" s="45"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B108" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="C108" s="45"/>
+      <c r="D108" s="45"/>
+      <c r="E108" s="45"/>
+      <c r="F108" s="45"/>
+      <c r="G108" s="45"/>
+      <c r="H108" s="46"/>
+      <c r="I108" s="46"/>
+      <c r="J108" s="46"/>
+      <c r="K108" s="45"/>
+      <c r="L108" s="45"/>
+      <c r="M108" s="46"/>
+      <c r="N108" s="46"/>
+      <c r="O108" s="45"/>
+      <c r="P108" s="45"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B109" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C109" s="45"/>
+      <c r="D109" s="45"/>
+      <c r="E109" s="45"/>
+      <c r="F109" s="45"/>
+      <c r="G109" s="45"/>
+      <c r="H109" s="46"/>
+      <c r="I109" s="46"/>
+      <c r="J109" s="46"/>
+      <c r="K109" s="45"/>
+      <c r="L109" s="45"/>
+      <c r="M109" s="46"/>
+      <c r="N109" s="46"/>
+      <c r="O109" s="45"/>
+      <c r="P109" s="45"/>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B110" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="C110" s="45"/>
+      <c r="D110" s="45"/>
+      <c r="E110" s="45"/>
+      <c r="F110" s="45"/>
+      <c r="G110" s="45"/>
+      <c r="H110" s="46"/>
+      <c r="I110" s="46"/>
+      <c r="J110" s="46"/>
+      <c r="K110" s="45"/>
+      <c r="L110" s="45"/>
+      <c r="M110" s="46"/>
+      <c r="N110" s="46"/>
+      <c r="O110" s="45"/>
+      <c r="P110" s="45"/>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B111" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="C111" s="45"/>
+      <c r="D111" s="45"/>
+      <c r="E111" s="45"/>
+      <c r="F111" s="45"/>
+      <c r="G111" s="45"/>
+      <c r="H111" s="46"/>
+      <c r="I111" s="46"/>
+      <c r="J111" s="46"/>
+      <c r="K111" s="45"/>
+      <c r="L111" s="45"/>
+      <c r="M111" s="46"/>
+      <c r="N111" s="46"/>
+      <c r="O111" s="45"/>
+      <c r="P111" s="45"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B105" r:id="rId1"/>
+    <hyperlink ref="B105" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les séries chronologiques historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-fr-2020."/>
+    <hyperlink ref="B107" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails."/>
+    <hyperlink ref="B108" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs."/>
+    <hyperlink ref="B109" r:id="rId2"/>
+    <hyperlink ref="B111" r:id="rId3"/>
+    <hyperlink ref="B110" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>